--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3790817.331359995</v>
+        <v>-3791492.658942747</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10963864.64421077</v>
+        <v>10963864.64421075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.965168186</v>
+        <v>590120.9651681854</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>108.8926439055161</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>108.8926439055161</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>108.8926439055161</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.13813028023929</v>
+        <v>45.13813028023969</v>
       </c>
       <c r="V11" t="n">
-        <v>50.77451047173925</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.77451047174036</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.33977076023149</v>
+        <v>18.33977076023189</v>
       </c>
       <c r="V12" t="n">
-        <v>25.60878921364517</v>
+        <v>25.60878921364557</v>
       </c>
       <c r="W12" t="n">
-        <v>43.68940492399008</v>
+        <v>43.68940492399048</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.17897610810388</v>
+        <v>12.17897610810428</v>
       </c>
       <c r="T13" t="n">
-        <v>21.08161657925092</v>
+        <v>21.08161657925132</v>
       </c>
       <c r="U13" t="n">
-        <v>79.74018931927239</v>
+        <v>79.74018931927279</v>
       </c>
       <c r="V13" t="n">
-        <v>46.6364092409292</v>
+        <v>46.63640924092959</v>
       </c>
       <c r="W13" t="n">
-        <v>79.79263506140558</v>
+        <v>79.79263506140597</v>
       </c>
       <c r="X13" t="n">
-        <v>19.8404181062993</v>
+        <v>19.84041810629969</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.44873204175826</v>
+        <v>12.44873204175866</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>108.8926439055161</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="H14" t="n">
-        <v>108.8926439055161</v>
+        <v>50.77451047174044</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.49330773019645</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.13813028023966</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>81.41933302178188</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.8926439055161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.33977076023149</v>
+        <v>18.33977076023186</v>
       </c>
       <c r="V15" t="n">
-        <v>25.60878921364517</v>
+        <v>25.60878921364554</v>
       </c>
       <c r="W15" t="n">
-        <v>43.68940492399008</v>
+        <v>43.68940492399045</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.17897610810388</v>
+        <v>12.17897610810425</v>
       </c>
       <c r="T16" t="n">
-        <v>21.08161657925092</v>
+        <v>21.08161657925129</v>
       </c>
       <c r="U16" t="n">
-        <v>79.74018931927239</v>
+        <v>79.74018931927276</v>
       </c>
       <c r="V16" t="n">
-        <v>46.6364092409292</v>
+        <v>46.63640924092957</v>
       </c>
       <c r="W16" t="n">
-        <v>79.79263506140558</v>
+        <v>79.79263506140595</v>
       </c>
       <c r="X16" t="n">
-        <v>19.8404181062993</v>
+        <v>19.84041810629967</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.44873204175826</v>
+        <v>12.44873204175863</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.65363498024703</v>
+        <v>50.65363498024709</v>
       </c>
       <c r="C17" t="n">
-        <v>33.92232066779462</v>
+        <v>33.92232066779468</v>
       </c>
       <c r="D17" t="n">
-        <v>23.54195774345038</v>
+        <v>23.54195774345044</v>
       </c>
       <c r="E17" t="n">
-        <v>50.05526074413945</v>
+        <v>50.0552607441395</v>
       </c>
       <c r="F17" t="n">
-        <v>74.23108846939283</v>
+        <v>74.23108846939289</v>
       </c>
       <c r="G17" t="n">
-        <v>81.29584701399327</v>
+        <v>81.29584701399332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.46734198940658</v>
+        <v>17.46734198940663</v>
       </c>
       <c r="X17" t="n">
-        <v>37.79882412002138</v>
+        <v>37.79882412002144</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.6242967400878</v>
+        <v>53.62429674008786</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.65363498024703</v>
+        <v>50.65363498024709</v>
       </c>
       <c r="C20" t="n">
-        <v>33.92232066779462</v>
+        <v>33.92232066779468</v>
       </c>
       <c r="D20" t="n">
-        <v>23.54195774345038</v>
+        <v>23.54195774345044</v>
       </c>
       <c r="E20" t="n">
-        <v>50.05526074413945</v>
+        <v>50.0552607441395</v>
       </c>
       <c r="F20" t="n">
-        <v>74.23108846939283</v>
+        <v>74.23108846939289</v>
       </c>
       <c r="G20" t="n">
-        <v>81.2958470139933</v>
+        <v>81.29584701399335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.46734198940658</v>
+        <v>17.46734198940663</v>
       </c>
       <c r="X20" t="n">
-        <v>37.79882412002138</v>
+        <v>37.79882412002073</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.6242967400878</v>
+        <v>53.62429674008786</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.65363498024698</v>
+        <v>50.65363498024709</v>
       </c>
       <c r="C23" t="n">
-        <v>33.92232066779457</v>
+        <v>33.92232066779468</v>
       </c>
       <c r="D23" t="n">
-        <v>23.54195774345033</v>
+        <v>23.54195774345044</v>
       </c>
       <c r="E23" t="n">
-        <v>50.05526074413939</v>
+        <v>50.0552607441395</v>
       </c>
       <c r="F23" t="n">
-        <v>74.23108846939277</v>
+        <v>74.23108846939289</v>
       </c>
       <c r="G23" t="n">
-        <v>81.29584701399324</v>
+        <v>81.29584701399335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.46734198940652</v>
+        <v>17.46734198940663</v>
       </c>
       <c r="X23" t="n">
-        <v>37.79882412002132</v>
+        <v>37.79882412002144</v>
       </c>
       <c r="Y23" t="n">
-        <v>53.62429674008774</v>
+        <v>53.62429674008786</v>
       </c>
     </row>
     <row r="24">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.9820702596946</v>
+        <v>194.9820702596951</v>
       </c>
       <c r="C26" t="n">
-        <v>178.2507559472422</v>
+        <v>178.2507559472427</v>
       </c>
       <c r="D26" t="n">
-        <v>167.870393022898</v>
+        <v>167.8703930228985</v>
       </c>
       <c r="E26" t="n">
-        <v>194.383696023587</v>
+        <v>194.3836960235875</v>
       </c>
       <c r="F26" t="n">
-        <v>218.5595237488404</v>
+        <v>218.5595237488409</v>
       </c>
       <c r="G26" t="n">
-        <v>225.6242822934409</v>
+        <v>225.6242822934414</v>
       </c>
       <c r="H26" t="n">
-        <v>144.3284352794476</v>
+        <v>144.3284352794481</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.824744749948394</v>
+        <v>5.824744749948888</v>
       </c>
       <c r="T26" t="n">
-        <v>32.058909824506</v>
+        <v>32.05890982450649</v>
       </c>
       <c r="U26" t="n">
-        <v>62.70373237454885</v>
+        <v>62.70373237454933</v>
       </c>
       <c r="V26" t="n">
-        <v>139.7988817908189</v>
+        <v>139.7988817908194</v>
       </c>
       <c r="W26" t="n">
-        <v>161.7957772688542</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X26" t="n">
-        <v>182.127259399469</v>
+        <v>182.1272593994695</v>
       </c>
       <c r="Y26" t="n">
-        <v>197.9527320195354</v>
+        <v>197.9527320195359</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>8.578201643099616</v>
+        <v>8.578201643100099</v>
       </c>
       <c r="U27" t="n">
-        <v>35.90537285454104</v>
+        <v>35.90537285454153</v>
       </c>
       <c r="V27" t="n">
-        <v>43.17439130795472</v>
+        <v>43.1743913079552</v>
       </c>
       <c r="W27" t="n">
-        <v>61.25500701829964</v>
+        <v>61.25500701830012</v>
       </c>
       <c r="X27" t="n">
-        <v>15.72728987677786</v>
+        <v>15.72728987677834</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.93681168688562</v>
+        <v>14.9368116868861</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.74457820241344</v>
+        <v>29.74457820241392</v>
       </c>
       <c r="T28" t="n">
-        <v>38.64721867356047</v>
+        <v>38.64721867356096</v>
       </c>
       <c r="U28" t="n">
-        <v>97.30579141358194</v>
+        <v>97.30579141358243</v>
       </c>
       <c r="V28" t="n">
-        <v>64.20201133523875</v>
+        <v>64.20201133523923</v>
       </c>
       <c r="W28" t="n">
-        <v>97.35823715571513</v>
+        <v>97.35823715571561</v>
       </c>
       <c r="X28" t="n">
-        <v>37.40602020060885</v>
+        <v>37.40602020060933</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.01433413606782</v>
+        <v>30.0143341360683</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.9820702596946</v>
+        <v>194.9820702596952</v>
       </c>
       <c r="C29" t="n">
-        <v>178.2507559472422</v>
+        <v>178.2507559472428</v>
       </c>
       <c r="D29" t="n">
-        <v>167.870393022898</v>
+        <v>167.8703930228985</v>
       </c>
       <c r="E29" t="n">
-        <v>194.383696023587</v>
+        <v>194.3836960235876</v>
       </c>
       <c r="F29" t="n">
-        <v>218.5595237488404</v>
+        <v>218.559523748841</v>
       </c>
       <c r="G29" t="n">
-        <v>225.6242822934409</v>
+        <v>225.6242822934414</v>
       </c>
       <c r="H29" t="n">
-        <v>144.3284352794476</v>
+        <v>144.3284352794481</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.824744749948394</v>
+        <v>5.824744749948945</v>
       </c>
       <c r="T29" t="n">
-        <v>32.058909824506</v>
+        <v>32.05890982450654</v>
       </c>
       <c r="U29" t="n">
-        <v>62.70373237454885</v>
+        <v>62.70373237454939</v>
       </c>
       <c r="V29" t="n">
-        <v>139.7988817908189</v>
+        <v>139.7988817908195</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7957772688542</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X29" t="n">
-        <v>182.127259399469</v>
+        <v>182.1272593994695</v>
       </c>
       <c r="Y29" t="n">
-        <v>197.9527320195354</v>
+        <v>197.9527320195359</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>8.578201643099616</v>
+        <v>8.578201643100156</v>
       </c>
       <c r="U30" t="n">
-        <v>35.90537285454104</v>
+        <v>35.90537285454158</v>
       </c>
       <c r="V30" t="n">
-        <v>43.17439130795472</v>
+        <v>43.17439130795526</v>
       </c>
       <c r="W30" t="n">
-        <v>61.25500701829964</v>
+        <v>61.25500701830018</v>
       </c>
       <c r="X30" t="n">
-        <v>15.72728987677786</v>
+        <v>15.7272898767784</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.93681168688562</v>
+        <v>14.93681168688616</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>29.74457820241344</v>
+        <v>29.74457820241398</v>
       </c>
       <c r="T31" t="n">
-        <v>38.64721867356047</v>
+        <v>38.64721867356101</v>
       </c>
       <c r="U31" t="n">
-        <v>97.30579141358194</v>
+        <v>97.30579141358248</v>
       </c>
       <c r="V31" t="n">
-        <v>64.20201133523875</v>
+        <v>64.20201133523929</v>
       </c>
       <c r="W31" t="n">
-        <v>97.35823715571513</v>
+        <v>97.35823715571567</v>
       </c>
       <c r="X31" t="n">
-        <v>37.40602020060885</v>
+        <v>37.40602020060939</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.01433413606782</v>
+        <v>30.01433413606836</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>194.9820702596947</v>
+        <v>194.9820702596952</v>
       </c>
       <c r="C32" t="n">
-        <v>178.2507559472423</v>
+        <v>178.2507559472428</v>
       </c>
       <c r="D32" t="n">
-        <v>167.870393022898</v>
+        <v>167.8703930228986</v>
       </c>
       <c r="E32" t="n">
-        <v>194.3836960235871</v>
+        <v>194.3836960235876</v>
       </c>
       <c r="F32" t="n">
-        <v>218.5595237488405</v>
+        <v>218.559523748841</v>
       </c>
       <c r="G32" t="n">
-        <v>225.6242822934409</v>
+        <v>225.6242822934415</v>
       </c>
       <c r="H32" t="n">
-        <v>144.3284352794476</v>
+        <v>144.3284352794482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.824744749948422</v>
+        <v>5.824744749948962</v>
       </c>
       <c r="T32" t="n">
-        <v>32.05890982450603</v>
+        <v>32.05890982450657</v>
       </c>
       <c r="U32" t="n">
-        <v>62.70373237454888</v>
+        <v>62.70373237454942</v>
       </c>
       <c r="V32" t="n">
-        <v>139.798881790819</v>
+        <v>139.7988817908195</v>
       </c>
       <c r="W32" t="n">
-        <v>161.7957772688542</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X32" t="n">
-        <v>182.127259399469</v>
+        <v>182.1272593994696</v>
       </c>
       <c r="Y32" t="n">
-        <v>197.9527320195354</v>
+        <v>197.952732019536</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>8.578201643099645</v>
+        <v>8.578201643100185</v>
       </c>
       <c r="U33" t="n">
-        <v>35.90537285454107</v>
+        <v>35.90537285454161</v>
       </c>
       <c r="V33" t="n">
-        <v>43.17439130795475</v>
+        <v>43.17439130795529</v>
       </c>
       <c r="W33" t="n">
-        <v>61.25500701829966</v>
+        <v>61.2550070183002</v>
       </c>
       <c r="X33" t="n">
-        <v>15.72728987677789</v>
+        <v>15.72728987677843</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.93681168688565</v>
+        <v>14.93681168688619</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>29.74457820241346</v>
+        <v>29.744578202414</v>
       </c>
       <c r="T34" t="n">
-        <v>38.6472186735605</v>
+        <v>38.64721867356104</v>
       </c>
       <c r="U34" t="n">
-        <v>97.30579141358197</v>
+        <v>97.30579141358251</v>
       </c>
       <c r="V34" t="n">
-        <v>64.20201133523878</v>
+        <v>64.20201133523932</v>
       </c>
       <c r="W34" t="n">
-        <v>97.35823715571516</v>
+        <v>97.3582371557157</v>
       </c>
       <c r="X34" t="n">
-        <v>37.40602020060888</v>
+        <v>37.40602020060942</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.01433413606784</v>
+        <v>30.01433413606838</v>
       </c>
     </row>
     <row r="35">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.9231604351886</v>
+        <v>162.9231604351887</v>
       </c>
       <c r="C38" t="n">
-        <v>146.1918461227362</v>
+        <v>146.1918461227363</v>
       </c>
       <c r="D38" t="n">
         <v>135.811483198392</v>
       </c>
       <c r="E38" t="n">
-        <v>162.324786199081</v>
+        <v>162.3247861990811</v>
       </c>
       <c r="F38" t="n">
-        <v>186.5006139243344</v>
+        <v>186.5006139243345</v>
       </c>
       <c r="G38" t="n">
         <v>193.5653724689349</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.64482255004284</v>
+        <v>30.64482255004287</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7399719663129</v>
+        <v>107.739971966313</v>
       </c>
       <c r="W38" t="n">
         <v>129.7368674443482</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.846463030035042</v>
+        <v>3.84646303003507</v>
       </c>
       <c r="V39" t="n">
-        <v>11.11548148344872</v>
+        <v>11.11548148344875</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19609719379363</v>
+        <v>29.19609719379366</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.588308849054473</v>
+        <v>6.588308849054501</v>
       </c>
       <c r="U40" t="n">
-        <v>65.24688158907594</v>
+        <v>65.24688158907597</v>
       </c>
       <c r="V40" t="n">
-        <v>32.14310151073275</v>
+        <v>32.14310151073278</v>
       </c>
       <c r="W40" t="n">
-        <v>65.29932733120913</v>
+        <v>65.29932733120916</v>
       </c>
       <c r="X40" t="n">
-        <v>5.347110376102847</v>
+        <v>5.347110376102876</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.588308849054471</v>
+        <v>6.588308849054475</v>
       </c>
       <c r="U46" t="n">
         <v>65.24688158907594</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.6891203170356</v>
+        <v>118.7039811139746</v>
       </c>
       <c r="C11" t="n">
-        <v>228.6965507155042</v>
+        <v>118.7039811139746</v>
       </c>
       <c r="D11" t="n">
-        <v>118.7039811139727</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E11" t="n">
-        <v>118.7039811139727</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F11" t="n">
-        <v>118.7039811139727</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G11" t="n">
-        <v>118.7039811139727</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H11" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I11" t="n">
-        <v>28.71258106161182</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J11" t="n">
-        <v>67.55789070275611</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K11" t="n">
-        <v>121.8332897132623</v>
+        <v>62.9868105229472</v>
       </c>
       <c r="L11" t="n">
-        <v>176.0088948414734</v>
+        <v>170.7905279894099</v>
       </c>
       <c r="M11" t="n">
-        <v>283.8126123079344</v>
+        <v>245.7046042296908</v>
       </c>
       <c r="N11" t="n">
-        <v>354.2514174629356</v>
+        <v>316.1434093846916</v>
       </c>
       <c r="O11" t="n">
-        <v>354.2514174629356</v>
+        <v>423.9471268511543</v>
       </c>
       <c r="P11" t="n">
-        <v>354.2514174629356</v>
+        <v>423.9471268511543</v>
       </c>
       <c r="Q11" t="n">
-        <v>396.9499169719904</v>
+        <v>423.9471268511543</v>
       </c>
       <c r="R11" t="n">
-        <v>423.9471268511469</v>
+        <v>423.9471268511543</v>
       </c>
       <c r="S11" t="n">
-        <v>435.5705756220645</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="T11" t="n">
-        <v>435.5705756220645</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="U11" t="n">
-        <v>389.9765046319238</v>
+        <v>389.9765046319303</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6891203170356</v>
+        <v>279.983935030397</v>
       </c>
       <c r="W11" t="n">
-        <v>338.6891203170356</v>
+        <v>169.9913654288638</v>
       </c>
       <c r="X11" t="n">
-        <v>338.6891203170356</v>
+        <v>118.7039811139746</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.6891203170356</v>
+        <v>118.7039811139746</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C12" t="n">
-        <v>43.63302583206416</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D12" t="n">
-        <v>43.63302583206416</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E12" t="n">
-        <v>43.63302583206416</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="L12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="M12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="N12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="O12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="P12" t="n">
-        <v>97.23460837897335</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.23460837897335</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="R12" t="n">
-        <v>97.23460837897335</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="S12" t="n">
-        <v>97.23460837897335</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="T12" t="n">
-        <v>97.23460837897335</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="U12" t="n">
-        <v>78.70958740904256</v>
+        <v>78.70958740904351</v>
       </c>
       <c r="V12" t="n">
-        <v>52.84212355687572</v>
+        <v>52.84212355687626</v>
       </c>
       <c r="W12" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="X12" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.711411512441289</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="C13" t="n">
-        <v>8.711411512441289</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="D13" t="n">
-        <v>8.711411512441289</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="E13" t="n">
-        <v>67.44347598872396</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9829872007674</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="G13" t="n">
-        <v>126.9829872007674</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1611084115106</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="I13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="J13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="K13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="M13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="N13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="O13" t="n">
-        <v>231.8029326224932</v>
+        <v>73.23925435027307</v>
       </c>
       <c r="P13" t="n">
-        <v>231.8029326224932</v>
+        <v>164.2424533775924</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.6886007904945</v>
+        <v>240.6886007904978</v>
       </c>
       <c r="R13" t="n">
-        <v>283.1750240952893</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="S13" t="n">
-        <v>270.8730280264975</v>
+        <v>270.8730280265</v>
       </c>
       <c r="T13" t="n">
-        <v>249.5784658252339</v>
+        <v>249.5784658252361</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0328200481911</v>
+        <v>169.0328200481929</v>
       </c>
       <c r="V13" t="n">
-        <v>121.9253359664445</v>
+        <v>121.9253359664458</v>
       </c>
       <c r="W13" t="n">
-        <v>41.32671469229741</v>
+        <v>41.32671469229835</v>
       </c>
       <c r="X13" t="n">
-        <v>21.28588832229812</v>
+        <v>21.28588832229866</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>228.6965507155042</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="C14" t="n">
-        <v>228.6965507155042</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="D14" t="n">
-        <v>118.7039811139727</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="E14" t="n">
-        <v>118.7039811139727</v>
+        <v>279.9839350303972</v>
       </c>
       <c r="F14" t="n">
-        <v>118.7039811139727</v>
+        <v>169.991365428864</v>
       </c>
       <c r="G14" t="n">
-        <v>118.7039811139727</v>
+        <v>59.99879582733077</v>
       </c>
       <c r="H14" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I14" t="n">
-        <v>28.71258106161182</v>
+        <v>28.71258106161159</v>
       </c>
       <c r="J14" t="n">
-        <v>99.88341772116792</v>
+        <v>99.88341772116732</v>
       </c>
       <c r="K14" t="n">
-        <v>99.88341772116792</v>
+        <v>181.5544242442807</v>
       </c>
       <c r="L14" t="n">
-        <v>100.6117808832252</v>
+        <v>289.3581417107433</v>
       </c>
       <c r="M14" t="n">
-        <v>208.4154983496862</v>
+        <v>289.3581417107433</v>
       </c>
       <c r="N14" t="n">
-        <v>208.4154983496862</v>
+        <v>289.3581417107433</v>
       </c>
       <c r="O14" t="n">
-        <v>237.4743285961063</v>
+        <v>354.2514174629437</v>
       </c>
       <c r="P14" t="n">
-        <v>289.1461995055295</v>
+        <v>354.2514174629437</v>
       </c>
       <c r="Q14" t="n">
-        <v>396.9499169719904</v>
+        <v>396.9499169719982</v>
       </c>
       <c r="R14" t="n">
-        <v>423.9471268511469</v>
+        <v>423.9471268511543</v>
       </c>
       <c r="S14" t="n">
-        <v>435.5705756220645</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="T14" t="n">
-        <v>420.9308708440883</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="U14" t="n">
-        <v>420.9308708440883</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="V14" t="n">
-        <v>420.9308708440883</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="W14" t="n">
-        <v>338.6891203170356</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="X14" t="n">
-        <v>338.6891203170356</v>
+        <v>389.9765046319304</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.6965507155042</v>
+        <v>389.9765046319304</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="L15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="M15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="N15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="O15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="P15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.38816666474575</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="R15" t="n">
-        <v>55.38816666474575</v>
+        <v>46.49064021804991</v>
       </c>
       <c r="S15" t="n">
-        <v>97.23460837897335</v>
+        <v>88.33708193227714</v>
       </c>
       <c r="T15" t="n">
-        <v>97.23460837897335</v>
+        <v>97.23460837897461</v>
       </c>
       <c r="U15" t="n">
-        <v>78.70958740904256</v>
+        <v>78.70958740904344</v>
       </c>
       <c r="V15" t="n">
-        <v>52.84212355687572</v>
+        <v>52.84212355687623</v>
       </c>
       <c r="W15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="X15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C16" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D16" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E16" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F16" t="n">
-        <v>68.2509227244847</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G16" t="n">
-        <v>79.92752828656305</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H16" t="n">
-        <v>79.92752828656305</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I16" t="n">
-        <v>79.92752828656305</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J16" t="n">
-        <v>79.92752828656305</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="K16" t="n">
-        <v>185.232450825441</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="L16" t="n">
-        <v>185.232450825441</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="M16" t="n">
-        <v>185.232450825441</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="N16" t="n">
-        <v>185.232450825441</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="O16" t="n">
-        <v>185.232450825441</v>
+        <v>108.7863034125386</v>
       </c>
       <c r="P16" t="n">
-        <v>283.1750240952893</v>
+        <v>206.7288766823866</v>
       </c>
       <c r="Q16" t="n">
-        <v>283.1750240952893</v>
+        <v>283.175024095292</v>
       </c>
       <c r="R16" t="n">
-        <v>283.1750240952893</v>
+        <v>283.175024095292</v>
       </c>
       <c r="S16" t="n">
-        <v>270.8730280264975</v>
+        <v>270.8730280264999</v>
       </c>
       <c r="T16" t="n">
-        <v>249.5784658252339</v>
+        <v>249.5784658252359</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0328200481911</v>
+        <v>169.0328200481927</v>
       </c>
       <c r="V16" t="n">
-        <v>121.9253359664445</v>
+        <v>121.9253359664457</v>
       </c>
       <c r="W16" t="n">
-        <v>41.32671469229741</v>
+        <v>41.3267146922983</v>
       </c>
       <c r="X16" t="n">
-        <v>21.28588832229812</v>
+        <v>21.28588832229863</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.711411512441289</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.4149212485736</v>
+        <v>274.4149212485739</v>
       </c>
       <c r="C17" t="n">
-        <v>240.1499508770639</v>
+        <v>240.149950877064</v>
       </c>
       <c r="D17" t="n">
         <v>216.3701955806494</v>
       </c>
       <c r="E17" t="n">
-        <v>165.8093261421247</v>
+        <v>165.8093261421246</v>
       </c>
       <c r="F17" t="n">
-        <v>90.82842869829322</v>
+        <v>90.82842869829328</v>
       </c>
       <c r="G17" t="n">
         <v>8.711411512441428</v>
@@ -5510,55 +5510,55 @@
         <v>8.711411512441428</v>
       </c>
       <c r="I17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="J17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="K17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="L17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="M17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="N17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="O17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="P17" t="n">
-        <v>116.5151289789041</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="Q17" t="n">
-        <v>219.963140689146</v>
+        <v>26.86670939309136</v>
       </c>
       <c r="R17" t="n">
-        <v>327.7668581556087</v>
+        <v>134.670426859554</v>
       </c>
       <c r="S17" t="n">
-        <v>435.5705756220714</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="T17" t="n">
-        <v>435.5705756220714</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="U17" t="n">
-        <v>435.5705756220714</v>
+        <v>431.0863176683291</v>
       </c>
       <c r="V17" t="n">
         <v>435.5705756220714</v>
       </c>
       <c r="W17" t="n">
-        <v>417.926795834792</v>
+        <v>417.9267958347924</v>
       </c>
       <c r="X17" t="n">
-        <v>379.746165410528</v>
+        <v>379.7461654105284</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.580209107409</v>
+        <v>325.5802091074093</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="C19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="D19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="E19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="F19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="G19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="H19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="I19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="J19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="K19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="L19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="M19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="N19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="O19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="P19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="R19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="S19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="T19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="U19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="V19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="W19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="X19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.711411512441428</v>
+        <v>435.5705756220714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.4149212485738</v>
+        <v>274.4149212485743</v>
       </c>
       <c r="C20" t="n">
-        <v>240.1499508770642</v>
+        <v>240.1499508770645</v>
       </c>
       <c r="D20" t="n">
-        <v>216.3701955806496</v>
+        <v>216.3701955806499</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8093261421249</v>
+        <v>165.8093261421251</v>
       </c>
       <c r="F20" t="n">
-        <v>90.82842869829325</v>
+        <v>90.82842869829331</v>
       </c>
       <c r="G20" t="n">
         <v>8.711411512441428</v>
@@ -5756,16 +5756,16 @@
         <v>116.5151289789041</v>
       </c>
       <c r="L20" t="n">
-        <v>116.5151289789041</v>
+        <v>134.670426859554</v>
       </c>
       <c r="M20" t="n">
-        <v>116.5151289789041</v>
+        <v>134.670426859554</v>
       </c>
       <c r="N20" t="n">
-        <v>116.5151289789041</v>
+        <v>134.670426859554</v>
       </c>
       <c r="O20" t="n">
-        <v>116.5151289789041</v>
+        <v>134.670426859554</v>
       </c>
       <c r="P20" t="n">
         <v>134.670426859554</v>
@@ -5777,10 +5777,10 @@
         <v>134.670426859554</v>
       </c>
       <c r="S20" t="n">
-        <v>242.4741443260166</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="T20" t="n">
-        <v>350.2778617924793</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="U20" t="n">
         <v>431.0863176683291</v>
@@ -5789,13 +5789,13 @@
         <v>435.5705756220714</v>
       </c>
       <c r="W20" t="n">
-        <v>417.9267958347921</v>
+        <v>417.926795834792</v>
       </c>
       <c r="X20" t="n">
-        <v>379.7461654105281</v>
+        <v>379.7461654105286</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5802091074092</v>
+        <v>325.5802091074096</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="L22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="M22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="N22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="O22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="P22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Q22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="R22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="S22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="T22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="U22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="V22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="W22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="X22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Y22" t="n">
-        <v>435.5705756220714</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.4149212485733</v>
+        <v>274.4149212485739</v>
       </c>
       <c r="C23" t="n">
-        <v>240.1499508770635</v>
+        <v>240.149950877064</v>
       </c>
       <c r="D23" t="n">
-        <v>216.3701955806492</v>
+        <v>216.3701955806494</v>
       </c>
       <c r="E23" t="n">
         <v>165.8093261421246</v>
       </c>
       <c r="F23" t="n">
-        <v>90.82842869829318</v>
+        <v>90.82842869829331</v>
       </c>
       <c r="G23" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H23" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I23" t="n">
-        <v>116.5151289789039</v>
+        <v>116.5151289789041</v>
       </c>
       <c r="J23" t="n">
-        <v>116.5151289789039</v>
+        <v>224.3188464453668</v>
       </c>
       <c r="K23" t="n">
-        <v>116.5151289789039</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="L23" t="n">
-        <v>116.5151289789039</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="M23" t="n">
-        <v>134.6704268595534</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="N23" t="n">
-        <v>134.6704268595534</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="O23" t="n">
-        <v>134.6704268595534</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="P23" t="n">
-        <v>242.4741443260158</v>
+        <v>242.4741443260167</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.4741443260158</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="R23" t="n">
-        <v>242.4741443260158</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="S23" t="n">
-        <v>242.4741443260158</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="T23" t="n">
-        <v>350.2778617924783</v>
+        <v>350.2778617924794</v>
       </c>
       <c r="U23" t="n">
-        <v>431.0863176683281</v>
+        <v>431.0863176683291</v>
       </c>
       <c r="V23" t="n">
-        <v>435.5705756220705</v>
+        <v>435.5705756220714</v>
       </c>
       <c r="W23" t="n">
-        <v>417.9267958347914</v>
+        <v>417.9267958347924</v>
       </c>
       <c r="X23" t="n">
-        <v>379.7461654105276</v>
+        <v>379.7461654105284</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5802091074086</v>
+        <v>325.5802091074093</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="L24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="M24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="N24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="O24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="P24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="R24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="S24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="T24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="U24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="V24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="W24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="X24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="C25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="D25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="E25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="F25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="G25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="H25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="I25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="J25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="K25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="L25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="M25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="N25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="O25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="P25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="R25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="S25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="T25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="U25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="V25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="W25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="X25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.71141151244141</v>
+        <v>8.711411512441428</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1183.840412769742</v>
+        <v>1183.840412769745</v>
       </c>
       <c r="C26" t="n">
-        <v>1003.789144136164</v>
+        <v>1003.789144136166</v>
       </c>
       <c r="D26" t="n">
-        <v>834.2230905776814</v>
+        <v>834.223090577683</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8759228770884</v>
+        <v>637.8759228770896</v>
       </c>
       <c r="F26" t="n">
-        <v>417.108727171189</v>
+        <v>417.1087271711897</v>
       </c>
       <c r="G26" t="n">
-        <v>189.2054117232687</v>
+        <v>189.2054117232693</v>
       </c>
       <c r="H26" t="n">
-        <v>43.4191134612004</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I26" t="n">
-        <v>46.03033693700447</v>
+        <v>46.03033693700416</v>
       </c>
       <c r="J26" t="n">
-        <v>87.06610616997786</v>
+        <v>46.03033693700416</v>
       </c>
       <c r="K26" t="n">
-        <v>457.6916758903888</v>
+        <v>399.3397119921302</v>
       </c>
       <c r="L26" t="n">
-        <v>737.6543251119938</v>
+        <v>477.9771048970001</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3722780426911</v>
+        <v>991.5487853758842</v>
       </c>
       <c r="N26" t="n">
-        <v>1308.713530498905</v>
+        <v>1044.597644457519</v>
       </c>
       <c r="O26" t="n">
-        <v>1748.288726805862</v>
+        <v>1484.172840764475</v>
       </c>
       <c r="P26" t="n">
-        <v>2113.894601575277</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q26" t="n">
-        <v>2170.95567306002</v>
+        <v>2093.686783353015</v>
       </c>
       <c r="R26" t="n">
-        <v>2170.95567306002</v>
+        <v>2170.955673060028</v>
       </c>
       <c r="S26" t="n">
-        <v>2165.072092504517</v>
+        <v>2165.072092504524</v>
       </c>
       <c r="T26" t="n">
-        <v>2132.689355308046</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U26" t="n">
-        <v>2069.352251899411</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V26" t="n">
-        <v>1928.141260191513</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W26" t="n">
-        <v>1764.711182142166</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X26" t="n">
-        <v>1580.744253455833</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1380.791998890646</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.4191134612004</v>
+        <v>66.5477054413421</v>
       </c>
       <c r="C27" t="n">
-        <v>43.4191134612004</v>
+        <v>84.07937368759805</v>
       </c>
       <c r="D27" t="n">
-        <v>43.4191134612004</v>
+        <v>126.2750706830819</v>
       </c>
       <c r="E27" t="n">
-        <v>43.4191134612004</v>
+        <v>158.6489676473627</v>
       </c>
       <c r="F27" t="n">
-        <v>43.4191134612004</v>
+        <v>192.587429477183</v>
       </c>
       <c r="G27" t="n">
-        <v>43.4191134612004</v>
+        <v>192.587429477183</v>
       </c>
       <c r="H27" t="n">
-        <v>43.4191134612004</v>
+        <v>192.587429477183</v>
       </c>
       <c r="I27" t="n">
-        <v>143.2504800858413</v>
+        <v>192.587429477183</v>
       </c>
       <c r="J27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="K27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="L27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="M27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="N27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="O27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="P27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="R27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="S27" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910606</v>
       </c>
       <c r="T27" t="n">
-        <v>216.1452475465124</v>
+        <v>216.145247546515</v>
       </c>
       <c r="U27" t="n">
-        <v>179.8771941580871</v>
+        <v>179.8771941580892</v>
       </c>
       <c r="V27" t="n">
-        <v>136.2666978874258</v>
+        <v>136.2666978874274</v>
       </c>
       <c r="W27" t="n">
-        <v>74.39295342449684</v>
+        <v>74.39295342449799</v>
       </c>
       <c r="X27" t="n">
-        <v>58.50680203381214</v>
+        <v>58.50680203381279</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.4191134612004</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.98325521980683</v>
+        <v>51.98325521980651</v>
       </c>
       <c r="C28" t="n">
-        <v>73.16706415229991</v>
+        <v>51.98325521980651</v>
       </c>
       <c r="D28" t="n">
-        <v>73.16706415229991</v>
+        <v>51.98325521980651</v>
       </c>
       <c r="E28" t="n">
-        <v>73.16706415229991</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="F28" t="n">
-        <v>115.3166292909769</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="G28" t="n">
-        <v>115.3166292909769</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="H28" t="n">
-        <v>115.3166292909769</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="I28" t="n">
-        <v>156.5685074285931</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="J28" t="n">
-        <v>156.5685074285931</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="K28" t="n">
-        <v>156.5685074285931</v>
+        <v>93.32537362272225</v>
       </c>
       <c r="L28" t="n">
-        <v>156.5685074285931</v>
+        <v>163.1685547597076</v>
       </c>
       <c r="M28" t="n">
-        <v>156.5685074285931</v>
+        <v>247.4012961544275</v>
       </c>
       <c r="N28" t="n">
-        <v>156.5685074285931</v>
+        <v>334.7724331230556</v>
       </c>
       <c r="O28" t="n">
-        <v>240.91259393607</v>
+        <v>400.1372229864617</v>
       </c>
       <c r="P28" t="n">
-        <v>416.9874757420815</v>
+        <v>416.9874757420856</v>
       </c>
       <c r="Q28" t="n">
-        <v>416.9874757420815</v>
+        <v>416.9874757420856</v>
       </c>
       <c r="R28" t="n">
-        <v>442.0839529735099</v>
+        <v>442.0839529735135</v>
       </c>
       <c r="S28" t="n">
-        <v>412.0389244862236</v>
+        <v>412.0389244862267</v>
       </c>
       <c r="T28" t="n">
-        <v>373.0013298664655</v>
+        <v>373.0013298664682</v>
       </c>
       <c r="U28" t="n">
-        <v>274.7126516709282</v>
+        <v>274.7126516709304</v>
       </c>
       <c r="V28" t="n">
-        <v>209.8621351706871</v>
+        <v>209.8621351706887</v>
       </c>
       <c r="W28" t="n">
-        <v>111.5204814780455</v>
+        <v>111.5204814780467</v>
       </c>
       <c r="X28" t="n">
-        <v>73.73662268955172</v>
+        <v>73.73662268955238</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.4191134612004</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1183.840412769742</v>
+        <v>1183.840412769745</v>
       </c>
       <c r="C29" t="n">
-        <v>1003.789144136164</v>
+        <v>1003.789144136166</v>
       </c>
       <c r="D29" t="n">
-        <v>834.2230905776812</v>
+        <v>834.223090577683</v>
       </c>
       <c r="E29" t="n">
-        <v>637.8759228770882</v>
+        <v>637.8759228770895</v>
       </c>
       <c r="F29" t="n">
-        <v>417.1087271711888</v>
+        <v>417.1087271711895</v>
       </c>
       <c r="G29" t="n">
-        <v>189.2054117232687</v>
+        <v>189.2054117232694</v>
       </c>
       <c r="H29" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I29" t="n">
-        <v>46.03033693700449</v>
+        <v>46.0303369370041</v>
       </c>
       <c r="J29" t="n">
-        <v>99.81122752319413</v>
+        <v>46.0303369370041</v>
       </c>
       <c r="K29" t="n">
-        <v>177.7460488019498</v>
+        <v>416.6559066574145</v>
       </c>
       <c r="L29" t="n">
-        <v>214.5317078567945</v>
+        <v>883.4655522134024</v>
       </c>
       <c r="M29" t="n">
-        <v>728.103388335679</v>
+        <v>1261.227017105544</v>
       </c>
       <c r="N29" t="n">
-        <v>1231.444640791893</v>
+        <v>1314.275876187178</v>
       </c>
       <c r="O29" t="n">
-        <v>1671.01983709885</v>
+        <v>1738.681463000081</v>
       </c>
       <c r="P29" t="n">
-        <v>1849.778715533881</v>
+        <v>1917.440341435113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2093.686783353008</v>
+        <v>2161.348409254239</v>
       </c>
       <c r="R29" t="n">
-        <v>2170.955673060021</v>
+        <v>2170.955673060028</v>
       </c>
       <c r="S29" t="n">
-        <v>2165.072092504517</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T29" t="n">
-        <v>2132.689355308046</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U29" t="n">
-        <v>2069.352251899411</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V29" t="n">
-        <v>1928.141260191513</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W29" t="n">
-        <v>1764.711182142165</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X29" t="n">
-        <v>1580.744253455833</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y29" t="n">
-        <v>1380.791998890646</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C30" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D30" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E30" t="n">
-        <v>75.79301042548173</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F30" t="n">
-        <v>120.5688369971513</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="H30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="J30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="K30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="L30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="M30" t="n">
-        <v>173.0156607380255</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="N30" t="n">
-        <v>173.0156607380255</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="O30" t="n">
-        <v>173.0156607380255</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="P30" t="n">
-        <v>200.3536020501964</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.3536020501964</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="R30" t="n">
-        <v>200.3536020501964</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="S30" t="n">
-        <v>224.8100976910575</v>
+        <v>224.8100976910609</v>
       </c>
       <c r="T30" t="n">
-        <v>216.1452475465125</v>
+        <v>216.1452475465153</v>
       </c>
       <c r="U30" t="n">
-        <v>179.8771941580871</v>
+        <v>179.8771941580895</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2666978874258</v>
+        <v>136.2666978874276</v>
       </c>
       <c r="W30" t="n">
-        <v>74.39295342449687</v>
+        <v>74.3929534244981</v>
       </c>
       <c r="X30" t="n">
-        <v>58.50680203381216</v>
+        <v>58.50680203381285</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="H31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="J31" t="n">
-        <v>110.7542987680627</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="K31" t="n">
-        <v>121.7256607276451</v>
+        <v>131.3340899267115</v>
       </c>
       <c r="L31" t="n">
-        <v>191.5688418646305</v>
+        <v>131.3340899267115</v>
       </c>
       <c r="M31" t="n">
-        <v>275.8015832593503</v>
+        <v>260.4252544260844</v>
       </c>
       <c r="N31" t="n">
-        <v>363.1727202279784</v>
+        <v>357.7398664660375</v>
       </c>
       <c r="O31" t="n">
-        <v>384.2790872918465</v>
+        <v>442.0839529735139</v>
       </c>
       <c r="P31" t="n">
-        <v>416.9874757420816</v>
+        <v>442.0839529735139</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.9874757420816</v>
+        <v>442.0839529735139</v>
       </c>
       <c r="R31" t="n">
-        <v>442.08395297351</v>
+        <v>442.0839529735139</v>
       </c>
       <c r="S31" t="n">
-        <v>412.0389244862237</v>
+        <v>412.0389244862271</v>
       </c>
       <c r="T31" t="n">
-        <v>373.0013298664656</v>
+        <v>373.0013298664685</v>
       </c>
       <c r="U31" t="n">
-        <v>274.7126516709283</v>
+        <v>274.7126516709306</v>
       </c>
       <c r="V31" t="n">
-        <v>209.8621351706871</v>
+        <v>209.8621351706889</v>
       </c>
       <c r="W31" t="n">
-        <v>111.5204814780455</v>
+        <v>111.5204814780468</v>
       </c>
       <c r="X31" t="n">
-        <v>73.73662268955175</v>
+        <v>73.73662268955243</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1183.840412769743</v>
+        <v>1183.840412769745</v>
       </c>
       <c r="C32" t="n">
-        <v>1003.789144136165</v>
+        <v>1003.789144136167</v>
       </c>
       <c r="D32" t="n">
-        <v>834.2230905776817</v>
+        <v>834.2230905776831</v>
       </c>
       <c r="E32" t="n">
-        <v>637.8759228770886</v>
+        <v>637.8759228770896</v>
       </c>
       <c r="F32" t="n">
-        <v>417.108727171189</v>
+        <v>417.1087271711895</v>
       </c>
       <c r="G32" t="n">
-        <v>189.2054117232688</v>
+        <v>189.2054117232694</v>
       </c>
       <c r="H32" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I32" t="n">
-        <v>46.03033693700446</v>
+        <v>46.03033693700407</v>
       </c>
       <c r="J32" t="n">
-        <v>273.9131025043612</v>
+        <v>87.06610616997746</v>
       </c>
       <c r="K32" t="n">
-        <v>563.6203304448005</v>
+        <v>457.6916758903878</v>
       </c>
       <c r="L32" t="n">
-        <v>1030.429976000789</v>
+        <v>924.5013214463756</v>
       </c>
       <c r="M32" t="n">
-        <v>1544.001656479673</v>
+        <v>975.2538678410393</v>
       </c>
       <c r="N32" t="n">
-        <v>1597.050515561308</v>
+        <v>1194.920347217759</v>
       </c>
       <c r="O32" t="n">
-        <v>1849.778715533881</v>
+        <v>1634.495543524716</v>
       </c>
       <c r="P32" t="n">
-        <v>1849.778715533881</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q32" t="n">
-        <v>2093.686783353008</v>
+        <v>2093.686783353016</v>
       </c>
       <c r="R32" t="n">
-        <v>2170.955673060021</v>
+        <v>2170.955673060028</v>
       </c>
       <c r="S32" t="n">
-        <v>2165.072092504518</v>
+        <v>2165.072092504524</v>
       </c>
       <c r="T32" t="n">
-        <v>2132.689355308047</v>
+        <v>2132.689355308053</v>
       </c>
       <c r="U32" t="n">
-        <v>2069.352251899411</v>
+        <v>2069.352251899417</v>
       </c>
       <c r="V32" t="n">
-        <v>1928.141260191514</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W32" t="n">
-        <v>1764.711182142166</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X32" t="n">
-        <v>1580.744253455834</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y32" t="n">
-        <v>1380.791998890646</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C33" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="H33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="J33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="K33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="L33" t="n">
-        <v>54.55072252364833</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="M33" t="n">
-        <v>54.55072252364833</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="N33" t="n">
-        <v>54.55072252364833</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="O33" t="n">
-        <v>54.55072252364833</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="P33" t="n">
-        <v>162.2632478551</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.2632478551</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="R33" t="n">
-        <v>224.8100976910577</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="S33" t="n">
-        <v>224.8100976910577</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="T33" t="n">
-        <v>216.1452475465126</v>
+        <v>216.1452475465154</v>
       </c>
       <c r="U33" t="n">
-        <v>179.8771941580873</v>
+        <v>179.8771941580896</v>
       </c>
       <c r="V33" t="n">
-        <v>136.2666978874259</v>
+        <v>136.2666978874277</v>
       </c>
       <c r="W33" t="n">
-        <v>74.39295342449692</v>
+        <v>74.39295342449816</v>
       </c>
       <c r="X33" t="n">
-        <v>58.50680203381219</v>
+        <v>58.50680203381287</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="H34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="J34" t="n">
-        <v>64.60292239369348</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="K34" t="n">
-        <v>237.66034104717</v>
+        <v>174.8104889728959</v>
       </c>
       <c r="L34" t="n">
-        <v>237.66034104717</v>
+        <v>264.2167137370797</v>
       </c>
       <c r="M34" t="n">
-        <v>237.66034104717</v>
+        <v>264.2167137370797</v>
       </c>
       <c r="N34" t="n">
-        <v>325.0314780157981</v>
+        <v>361.5313257770328</v>
       </c>
       <c r="O34" t="n">
-        <v>409.375564523275</v>
+        <v>361.5313257770328</v>
       </c>
       <c r="P34" t="n">
-        <v>442.0839529735102</v>
+        <v>442.0839529735141</v>
       </c>
       <c r="Q34" t="n">
-        <v>442.0839529735102</v>
+        <v>442.0839529735141</v>
       </c>
       <c r="R34" t="n">
-        <v>442.0839529735102</v>
+        <v>442.0839529735141</v>
       </c>
       <c r="S34" t="n">
-        <v>412.0389244862238</v>
+        <v>412.0389244862272</v>
       </c>
       <c r="T34" t="n">
-        <v>373.0013298664658</v>
+        <v>373.0013298664686</v>
       </c>
       <c r="U34" t="n">
-        <v>274.7126516709284</v>
+        <v>274.7126516709307</v>
       </c>
       <c r="V34" t="n">
-        <v>209.8621351706872</v>
+        <v>209.862135170689</v>
       </c>
       <c r="W34" t="n">
-        <v>111.5204814780456</v>
+        <v>111.5204814780468</v>
       </c>
       <c r="X34" t="n">
-        <v>73.73662268955178</v>
+        <v>73.73662268955246</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.41911346120042</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="35">
@@ -6938,28 +6938,28 @@
         <v>328.6783324444419</v>
       </c>
       <c r="K35" t="n">
-        <v>376.2734867947558</v>
+        <v>397.3021061078425</v>
       </c>
       <c r="L35" t="n">
-        <v>444.7974665758614</v>
+        <v>826.8099177237366</v>
       </c>
       <c r="M35" t="n">
-        <v>527.2883336967866</v>
+        <v>909.3007848446617</v>
       </c>
       <c r="N35" t="n">
-        <v>612.0755135046824</v>
+        <v>1338.808596460556</v>
       </c>
       <c r="O35" t="n">
-        <v>1041.583325120577</v>
+        <v>1338.808596460556</v>
       </c>
       <c r="P35" t="n">
-        <v>1438.927520616253</v>
+        <v>1600.40606358087</v>
       </c>
       <c r="Q35" t="n">
-        <v>1694.039512905905</v>
+        <v>1600.40606358087</v>
       </c>
       <c r="R35" t="n">
-        <v>1735.385097437956</v>
+        <v>1709.413274014144</v>
       </c>
       <c r="S35" t="n">
         <v>1735.385097437956</v>
@@ -7002,37 +7002,37 @@
         <v>34.70770194875912</v>
       </c>
       <c r="F36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="G36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="H36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="I36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="J36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="K36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="L36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="M36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="N36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="O36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="P36" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="Q36" t="n">
         <v>79.31178448136257</v>
@@ -7090,16 +7090,16 @@
         <v>34.70770194875912</v>
       </c>
       <c r="I37" t="n">
-        <v>34.70770194875912</v>
+        <v>99.5161903632808</v>
       </c>
       <c r="J37" t="n">
-        <v>34.70770194875912</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="K37" t="n">
-        <v>154.3609991405316</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="L37" t="n">
-        <v>154.3609991405316</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="M37" t="n">
         <v>211.0963177630775</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.8325780784763</v>
+        <v>980.8325780784767</v>
       </c>
       <c r="C38" t="n">
-        <v>833.1640466413691</v>
+        <v>833.1640466413693</v>
       </c>
       <c r="D38" t="n">
-        <v>695.980730279357</v>
+        <v>695.9807302793571</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0162997752346</v>
+        <v>532.0162997752348</v>
       </c>
       <c r="F38" t="n">
         <v>343.6318412658059</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1112630143567</v>
+        <v>148.1112630143568</v>
       </c>
       <c r="H38" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I38" t="n">
-        <v>69.05724615082414</v>
+        <v>69.05724615082411</v>
       </c>
       <c r="J38" t="n">
-        <v>69.05724615082414</v>
+        <v>328.6783324444418</v>
       </c>
       <c r="K38" t="n">
-        <v>137.6810198142248</v>
+        <v>612.371802424786</v>
       </c>
       <c r="L38" t="n">
-        <v>567.1888314301189</v>
+        <v>680.8957822058916</v>
       </c>
       <c r="M38" t="n">
-        <v>893.9135155746201</v>
+        <v>763.3866493268167</v>
       </c>
       <c r="N38" t="n">
-        <v>1057.209363369554</v>
+        <v>848.1738291347124</v>
       </c>
       <c r="O38" t="n">
-        <v>1486.717174985448</v>
+        <v>927.4154795398076</v>
       </c>
       <c r="P38" t="n">
-        <v>1552.737420547766</v>
+        <v>1324.759675035484</v>
       </c>
       <c r="Q38" t="n">
-        <v>1609.784294709715</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R38" t="n">
-        <v>1718.791505142989</v>
+        <v>1709.413274014145</v>
       </c>
       <c r="S38" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="T38" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="U38" t="n">
         <v>1704.430731225792</v>
       </c>
       <c r="V38" t="n">
-        <v>1595.602476714364</v>
+        <v>1595.602476714365</v>
       </c>
       <c r="W38" t="n">
-        <v>1464.555135861487</v>
+        <v>1464.555135861488</v>
       </c>
       <c r="X38" t="n">
         <v>1312.970944371626</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="C39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="D39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="G39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="H39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="I39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="J39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="K39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="L39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="M39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="N39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="O39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="P39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="R39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="S39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="T39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136265</v>
       </c>
       <c r="U39" t="n">
-        <v>75.42646828940798</v>
+        <v>75.42646828940804</v>
       </c>
       <c r="V39" t="n">
-        <v>64.19870921521735</v>
+        <v>64.19870921521738</v>
       </c>
       <c r="W39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="X39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="C40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="D40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="E40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="F40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="G40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="H40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="I40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="J40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="L40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="M40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="N40" t="n">
-        <v>34.70770194875912</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="O40" t="n">
-        <v>150.790109182497</v>
+        <v>75.01016443362647</v>
       </c>
       <c r="P40" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="R40" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="S40" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="T40" t="n">
-        <v>204.4414603397901</v>
+        <v>204.4414603397902</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5355193407235</v>
+        <v>138.5355193407236</v>
       </c>
       <c r="V40" t="n">
-        <v>106.067740036953</v>
+        <v>106.0677400369531</v>
       </c>
       <c r="W40" t="n">
-        <v>40.1088235407822</v>
+        <v>40.10882354078224</v>
       </c>
       <c r="X40" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.70770194875912</v>
+        <v>34.70770194875913</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>532.0162997752348</v>
       </c>
       <c r="F41" t="n">
-        <v>343.6318412658062</v>
+        <v>343.6318412658061</v>
       </c>
       <c r="G41" t="n">
         <v>148.1112630143567</v>
@@ -7412,22 +7412,22 @@
         <v>328.6783324444419</v>
       </c>
       <c r="K41" t="n">
-        <v>397.3021061078425</v>
+        <v>731.0422228911137</v>
       </c>
       <c r="L41" t="n">
-        <v>465.8260858889481</v>
+        <v>799.5662026722193</v>
       </c>
       <c r="M41" t="n">
-        <v>895.3338975048423</v>
+        <v>882.0570697931445</v>
       </c>
       <c r="N41" t="n">
-        <v>980.1210773127381</v>
+        <v>944.6269306002952</v>
       </c>
       <c r="O41" t="n">
-        <v>1059.362727717833</v>
+        <v>1374.134742216189</v>
       </c>
       <c r="P41" t="n">
-        <v>1392.421300936706</v>
+        <v>1611.020815320144</v>
       </c>
       <c r="Q41" t="n">
         <v>1668.067689482093</v>
@@ -7464,55 +7464,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="N42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="O42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="P42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="R42" t="n">
-        <v>50.87600569700999</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="S42" t="n">
         <v>79.31178448136257</v>
@@ -7530,10 +7530,10 @@
         <v>34.70770194875912</v>
       </c>
       <c r="X42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.87600569700999</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.0342943651803</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C43" t="n">
-        <v>77.0342943651803</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D43" t="n">
-        <v>138.0158786339003</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L43" t="n">
-        <v>211.0963177630775</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M43" t="n">
-        <v>211.0963177630775</v>
+        <v>98.80536984033469</v>
       </c>
       <c r="N43" t="n">
-        <v>211.0963177630775</v>
+        <v>98.80536984033469</v>
       </c>
       <c r="O43" t="n">
-        <v>211.0963177630775</v>
+        <v>98.80536984033469</v>
       </c>
       <c r="P43" t="n">
         <v>211.0963177630775</v>
@@ -7612,7 +7612,7 @@
         <v>34.70770194875912</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.73183188031292</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>34.70770194875912</v>
       </c>
       <c r="I44" t="n">
-        <v>69.05724615082417</v>
+        <v>69.05724615082408</v>
       </c>
       <c r="J44" t="n">
-        <v>154.5764574632748</v>
+        <v>210.0079119781149</v>
       </c>
       <c r="K44" t="n">
-        <v>417.719753904874</v>
+        <v>612.3718024247867</v>
       </c>
       <c r="L44" t="n">
-        <v>847.2275655207682</v>
+        <v>680.895782205892</v>
       </c>
       <c r="M44" t="n">
-        <v>1173.952249665269</v>
+        <v>763.386649326817</v>
       </c>
       <c r="N44" t="n">
-        <v>1258.739429473165</v>
+        <v>848.1738291347124</v>
       </c>
       <c r="O44" t="n">
-        <v>1258.739429473165</v>
+        <v>927.4154795398074</v>
       </c>
       <c r="P44" t="n">
         <v>1324.759675035483</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.40606358087</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R44" t="n">
         <v>1709.413274014144</v>
@@ -7704,52 +7704,52 @@
         <v>34.70770194875912</v>
       </c>
       <c r="C45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="N45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="O45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="P45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="R45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="S45" t="n">
         <v>79.31178448136257</v>
@@ -7783,25 +7783,25 @@
         <v>34.70770194875912</v>
       </c>
       <c r="C46" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D46" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E46" t="n">
-        <v>160.7102707366903</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F46" t="n">
-        <v>160.7102707366903</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7102707366903</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H46" t="n">
-        <v>160.7102707366903</v>
+        <v>95.23419781239679</v>
       </c>
       <c r="I46" t="n">
-        <v>160.7102707366903</v>
+        <v>168.2243966762739</v>
       </c>
       <c r="J46" t="n">
         <v>211.0963177630775</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.6478943326647</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>54.16981044267872</v>
       </c>
       <c r="M11" t="n">
-        <v>73.5618627291805</v>
+        <v>6.839983608333981</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>140.7511784399486</v>
+        <v>43.34388051945692</v>
       </c>
       <c r="P11" t="n">
-        <v>154.1061328265926</v>
+        <v>42.03955019204494</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8763,34 +8763,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>98.58652704303775</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.52941663360662</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>77.4519116244787</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>71.31914540423523</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>59.01641885235131</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>75.87162509168563</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>79.93380909387038</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.0138500492478</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>151.4763064618623</v>
+        <v>27.6723308208157</v>
       </c>
       <c r="L14" t="n">
-        <v>152.3128287288849</v>
+        <v>54.16981044267868</v>
       </c>
       <c r="M14" t="n">
-        <v>40.0618434327579</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>135.149633588635</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>154.1061328265926</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.76284642162236</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>91.52941663360662</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>71.31914540423523</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>47.0835581330432</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>75.87162509168563</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>79.93380909387038</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.596479476992</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.871857730500366</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>90.43675181255529</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>42.2744786363896</v>
       </c>
       <c r="M26" t="n">
-        <v>17.13677427882128</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>396.0321885132552</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>91.52941663360662</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>77.4519116244787</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>71.31914540423523</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.01641885235131</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>75.87162509168563</v>
       </c>
       <c r="P27" t="n">
         <v>79.93380909387038</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>102.596479476992</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>99.93133320088072</v>
       </c>
       <c r="L28" t="n">
-        <v>98.42502178807985</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>100.5664701794398</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N28" t="n">
-        <v>60.31526047087384</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P28" t="n">
-        <v>96.48712586821182</v>
+        <v>124.388506963157</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K29" t="n">
-        <v>41.46400842587471</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>330.3120388863409</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>396.0321885132552</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
         <v>98.58652704303775</v>
@@ -10200,13 +10200,13 @@
         <v>71.31914540423523</v>
       </c>
       <c r="N30" t="n">
-        <v>59.01641885235131</v>
+        <v>242.2396352461496</v>
       </c>
       <c r="O30" t="n">
         <v>75.87162509168563</v>
       </c>
       <c r="P30" t="n">
-        <v>107.5478912273763</v>
+        <v>79.93380909387038</v>
       </c>
       <c r="Q30" t="n">
         <v>102.596479476992</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>185.6500473458235</v>
+        <v>42.22724610367214</v>
       </c>
       <c r="N31" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>124.8578554452268</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>168.3006265606928</v>
       </c>
       <c r="O32" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P32" t="n">
-        <v>145.3786403118971</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
         <v>220.8075902863009</v>
@@ -10425,7 +10425,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>98.58652704303775</v>
       </c>
       <c r="K33" t="n">
         <v>91.52941663360662</v>
@@ -10434,7 +10434,7 @@
         <v>77.4519116244787</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31914540423523</v>
+        <v>254.5423617980337</v>
       </c>
       <c r="N33" t="n">
         <v>59.01641885235131</v>
@@ -10443,13 +10443,13 @@
         <v>75.87162509168563</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.93380909387038</v>
       </c>
       <c r="Q33" t="n">
         <v>102.596479476992</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.0024668565303</v>
+        <v>43.91555459210551</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>100.5664701794398</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P34" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>364.630133166453</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>348.2026583919176</v>
       </c>
       <c r="O35" t="n">
-        <v>353.8042032432312</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>334.6706564983419</v>
+        <v>197.5527490484815</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.0657758865687</v>
+        <v>3.067434272021544</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
         <v>98.58652704303775</v>
@@ -10683,7 +10683,7 @@
         <v>79.93380909387038</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.6511082978035</v>
+        <v>102.596479476992</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10750,10 +10750,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>157.8748728284761</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>90.43675181255529</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>134.4102078264584</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>217.2421174918622</v>
       </c>
       <c r="L38" t="n">
-        <v>364.630133166453</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>79.30168483539236</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>353.8042032432312</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10896,34 +10896,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>98.58652704303775</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.52941663360662</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>77.4519116244787</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>42.92087809041136</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>59.01641885235131</v>
       </c>
       <c r="O39" t="n">
         <v>75.87162509168563</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>79.93380909387038</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>102.596479476992</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,22 +10981,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>99.93133320088072</v>
       </c>
       <c r="L40" t="n">
         <v>98.42502178807985</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>100.5664701794398</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>90.43675181255529</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>24.03556101687715</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>350.5221661565344</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>353.8042032432312</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7356845015707</v>
+        <v>172.5917449915523</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>79.93380909387038</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.3714155872986</v>
+        <v>102.596479476992</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>98.42502178807985</v>
       </c>
       <c r="M43" t="n">
-        <v>100.5664701794398</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>90.43675181255529</v>
@@ -11233,7 +11233,7 @@
         <v>103.538292754451</v>
       </c>
       <c r="P43" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>55.99136819680848</v>
       </c>
       <c r="K44" t="n">
-        <v>196.4843664426247</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>364.6301331664529</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>61.41765231793035</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11370,31 +11370,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>71.31914540423543</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>30.79135496265582</v>
       </c>
       <c r="O45" t="n">
-        <v>75.87162509168553</v>
+        <v>75.87162509168581</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.93380909387054</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>99.93133320088079</v>
       </c>
       <c r="L46" t="n">
-        <v>98.42502178807979</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M46" t="n">
-        <v>100.5664701794398</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N46" t="n">
-        <v>90.43675181255523</v>
+        <v>90.43675181255539</v>
       </c>
       <c r="O46" t="n">
-        <v>103.5382927544509</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.4164681653851</v>
+        <v>177.4164681653855</v>
       </c>
       <c r="C11" t="n">
-        <v>51.79250994741655</v>
+        <v>160.6851538529331</v>
       </c>
       <c r="D11" t="n">
-        <v>41.41214702307231</v>
+        <v>41.41214702307097</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8180939292775</v>
+        <v>176.8180939292779</v>
       </c>
       <c r="F11" t="n">
-        <v>200.9939216545309</v>
+        <v>200.9939216545313</v>
       </c>
       <c r="G11" t="n">
-        <v>208.0586801991313</v>
+        <v>208.0586801991317</v>
       </c>
       <c r="H11" t="n">
-        <v>17.87018927962191</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.49330773019645</v>
+        <v>14.49330773019685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>71.45876922477015</v>
+        <v>13.34063579099193</v>
       </c>
       <c r="W11" t="n">
-        <v>144.2301751745446</v>
+        <v>35.33753126902717</v>
       </c>
       <c r="X11" t="n">
-        <v>164.5616573051594</v>
+        <v>113.7871468334195</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.3871299252258</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.4164681653851</v>
+        <v>177.4164681653855</v>
       </c>
       <c r="C14" t="n">
-        <v>160.6851538529327</v>
+        <v>160.685153852933</v>
       </c>
       <c r="D14" t="n">
-        <v>41.41214702307231</v>
+        <v>150.3047909285888</v>
       </c>
       <c r="E14" t="n">
-        <v>176.8180939292775</v>
+        <v>67.92545002376001</v>
       </c>
       <c r="F14" t="n">
-        <v>200.9939216545309</v>
+        <v>92.10127774901341</v>
       </c>
       <c r="G14" t="n">
-        <v>208.0586801991313</v>
+        <v>99.16603629361383</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87018927962191</v>
+        <v>75.98832271339798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>14.49330773019682</v>
       </c>
       <c r="U14" t="n">
-        <v>45.13813028023929</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2332796965094</v>
+        <v>122.2332796965098</v>
       </c>
       <c r="W14" t="n">
-        <v>62.81084215276273</v>
+        <v>144.230175174545</v>
       </c>
       <c r="X14" t="n">
-        <v>164.5616573051594</v>
+        <v>164.5616573051598</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.49448601970973</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.034373084024992e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1197489.324230503</v>
+        <v>1197489.324230504</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1197489.324230503</v>
+        <v>1197489.324230504</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1491238.089959663</v>
+        <v>1491238.089959664</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1491238.089959663</v>
+        <v>1491238.089959664</v>
       </c>
     </row>
     <row r="13">
@@ -26314,16 +26314,16 @@
         <v>60911.72833168056</v>
       </c>
       <c r="C2" t="n">
-        <v>60911.72833168052</v>
+        <v>60911.72833168056</v>
       </c>
       <c r="D2" t="n">
-        <v>60911.72833168053</v>
+        <v>60911.72833168055</v>
       </c>
       <c r="E2" t="n">
-        <v>52390.48214025694</v>
+        <v>52390.48214025699</v>
       </c>
       <c r="F2" t="n">
-        <v>52390.48214025692</v>
+        <v>52390.48214025698</v>
       </c>
       <c r="G2" t="n">
         <v>61043.95564612021</v>
@@ -26332,28 +26332,28 @@
         <v>61043.95564612022</v>
       </c>
       <c r="I2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612022</v>
       </c>
       <c r="J2" t="n">
+        <v>61043.95564612025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61043.95564612025</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61043.9556461203</v>
+      </c>
+      <c r="M2" t="n">
         <v>61043.95564612019</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61043.95564612018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61043.95564612018</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61043.95564612022</v>
       </c>
       <c r="N2" t="n">
         <v>61043.9556461202</v>
       </c>
       <c r="O2" t="n">
-        <v>61043.95564612019</v>
+        <v>61043.9556461202</v>
       </c>
       <c r="P2" t="n">
-        <v>61043.95564612019</v>
+        <v>61043.95564612021</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296705.4171615929</v>
+        <v>296705.417161593</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>101410.2665481104</v>
+        <v>101410.2665481107</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163090.4798457635</v>
+        <v>163090.4798457634</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101410.2665481104</v>
+        <v>101410.2665481107</v>
       </c>
       <c r="M3" t="n">
-        <v>25647.12785960483</v>
+        <v>25647.12785960526</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49577.20523724984</v>
+        <v>49577.20523724925</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>357576.9703870097</v>
+        <v>357576.9703870099</v>
       </c>
       <c r="F4" t="n">
-        <v>357576.9703870097</v>
+        <v>357576.9703870099</v>
       </c>
       <c r="G4" t="n">
         <v>421960.8835407404</v>
       </c>
       <c r="H4" t="n">
+        <v>421960.8835407404</v>
+      </c>
+      <c r="I4" t="n">
         <v>421960.8835407403</v>
-      </c>
-      <c r="I4" t="n">
-        <v>421960.8835407404</v>
       </c>
       <c r="J4" t="n">
         <v>430175.9109578563</v>
@@ -26445,7 +26445,7 @@
         <v>430175.9109578563</v>
       </c>
       <c r="L4" t="n">
-        <v>430175.9109578563</v>
+        <v>430175.9109578564</v>
       </c>
       <c r="M4" t="n">
         <v>426936.3852869386</v>
@@ -26457,7 +26457,7 @@
         <v>426936.3852869386</v>
       </c>
       <c r="P4" t="n">
-        <v>426936.3852869386</v>
+        <v>426936.3852869387</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26654.56406561552</v>
+        <v>26654.56406561559</v>
       </c>
       <c r="F5" t="n">
-        <v>26654.56406561552</v>
+        <v>26654.5640656156</v>
       </c>
       <c r="G5" t="n">
-        <v>37311.388688657</v>
+        <v>37311.38868865699</v>
       </c>
       <c r="H5" t="n">
-        <v>37311.388688657</v>
+        <v>37311.38868865699</v>
       </c>
       <c r="I5" t="n">
-        <v>37311.38868865698</v>
+        <v>37311.38868865699</v>
       </c>
       <c r="J5" t="n">
-        <v>51555.69494420593</v>
+        <v>51555.69494420601</v>
       </c>
       <c r="K5" t="n">
-        <v>51555.69494420594</v>
+        <v>51555.694944206</v>
       </c>
       <c r="L5" t="n">
-        <v>51555.69494420593</v>
+        <v>51555.694944206</v>
       </c>
       <c r="M5" t="n">
         <v>47630.18268478695</v>
       </c>
       <c r="N5" t="n">
-        <v>47630.18268478695</v>
+        <v>47630.18268478696</v>
       </c>
       <c r="O5" t="n">
         <v>47630.18268478695</v>
       </c>
       <c r="P5" t="n">
-        <v>47630.18268478696</v>
+        <v>47630.18268478695</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-436267.992304011</v>
+        <v>-436272.399881159</v>
       </c>
       <c r="C6" t="n">
-        <v>-436267.9923040111</v>
+        <v>-436272.399881159</v>
       </c>
       <c r="D6" t="n">
-        <v>-436267.9923040111</v>
+        <v>-436272.3998811591</v>
       </c>
       <c r="E6" t="n">
-        <v>-628546.4694739612</v>
+        <v>-628834.9185908237</v>
       </c>
       <c r="F6" t="n">
-        <v>-331841.0523123683</v>
+        <v>-332129.5014292307</v>
       </c>
       <c r="G6" t="n">
-        <v>-499638.5831313876</v>
+        <v>-499638.5831313878</v>
       </c>
       <c r="H6" t="n">
         <v>-398228.3165832771</v>
@@ -26546,22 +26546,22 @@
         <v>-583778.1301017056</v>
       </c>
       <c r="K6" t="n">
-        <v>-420687.650255942</v>
+        <v>-420687.6502559421</v>
       </c>
       <c r="L6" t="n">
-        <v>-522097.9168040524</v>
+        <v>-522097.9168040527</v>
       </c>
       <c r="M6" t="n">
-        <v>-439169.7401852102</v>
+        <v>-439169.7401852107</v>
       </c>
       <c r="N6" t="n">
         <v>-413522.6123256054</v>
       </c>
       <c r="O6" t="n">
-        <v>-463099.8175628553</v>
+        <v>-463099.8175628546</v>
       </c>
       <c r="P6" t="n">
-        <v>-413522.6123256054</v>
+        <v>-413522.6123256055</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G2" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="H2" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="I2" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K2" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L2" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="M2" t="n">
         <v>220.7932495562064</v>
@@ -26777,7 +26777,7 @@
         <v>123.4156654490507</v>
       </c>
       <c r="P3" t="n">
-        <v>123.4156654490509</v>
+        <v>123.4156654490504</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.8926439055161</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="F4" t="n">
-        <v>108.8926439055161</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="G4" t="n">
-        <v>108.8926439055178</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="H4" t="n">
         <v>108.8926439055179</v>
       </c>
       <c r="I4" t="n">
-        <v>108.8926439055176</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="J4" t="n">
-        <v>542.7389182650049</v>
+        <v>542.738918265007</v>
       </c>
       <c r="K4" t="n">
-        <v>542.7389182650052</v>
+        <v>542.738918265007</v>
       </c>
       <c r="L4" t="n">
-        <v>542.7389182650052</v>
+        <v>542.738918265007</v>
       </c>
       <c r="M4" t="n">
         <v>433.846274359489</v>
       </c>
       <c r="N4" t="n">
-        <v>433.846274359489</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="O4" t="n">
         <v>433.846274359489</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.762833185138</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.9715065465623</v>
+        <v>61.97150654656153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.762833185138</v>
+        <v>126.7628331851383</v>
       </c>
       <c r="M2" t="n">
-        <v>32.05890982450603</v>
+        <v>32.05890982450657</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.9715065465623</v>
+        <v>61.97150654656156</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.8926439055161</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>433.8462743594873</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.762833185138</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.9715065465623</v>
+        <v>61.97150654656153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.8926439055161</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I11" t="n">
-        <v>206.29994182601</v>
+        <v>186.0967402611912</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="M11" t="n">
-        <v>172.7999225295873</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="N11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>112.0665826345477</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.29994182601</v>
+        <v>163.1701443421162</v>
       </c>
       <c r="R11" t="n">
-        <v>206.29994182601</v>
+        <v>179.030032857165</v>
       </c>
       <c r="S11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>206.29994182601</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -28178,7 +28178,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6492447571949</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.7577500944538</v>
@@ -28187,34 +28187,34 @@
         <v>107.8987297172383</v>
       </c>
       <c r="I12" t="n">
-        <v>87.89457546438634</v>
+        <v>77.36379842985801</v>
       </c>
       <c r="J12" t="n">
-        <v>98.58652704303775</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>91.52941663360662</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>77.4519116244787</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31914540423523</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>59.01641885235131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>75.87162509168563</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>79.93380909387038</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.596479476992</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>125.5557035337633</v>
+        <v>78.21316692998968</v>
       </c>
       <c r="S12" t="n">
         <v>164.0308087813356</v>
@@ -28223,13 +28223,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U12" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V12" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W12" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>206.29994182601</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>206.29994182601</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.6670360907737</v>
       </c>
       <c r="H13" t="n">
-        <v>206.29994182601</v>
+        <v>159.6553749464714</v>
       </c>
       <c r="I13" t="n">
-        <v>206.29994182601</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J13" t="n">
         <v>108.0860501624724</v>
@@ -28287,34 +28287,34 @@
         <v>103.538292754451</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>199.2904728941625</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.0570334978236</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="J14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="M14" t="n">
-        <v>206.29994182601</v>
+        <v>137.4691413532517</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>135.149633588635</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1035322242113</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P14" t="n">
-        <v>206.29994182601</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>203.1816712347541</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -28430,43 +28430,43 @@
         <v>98.58652704303775</v>
       </c>
       <c r="K15" t="n">
-        <v>91.52941663360662</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>77.4519116244787</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31914540423523</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>59.01641885235131</v>
+        <v>11.93286071930811</v>
       </c>
       <c r="O15" t="n">
-        <v>75.87162509168563</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>79.93380909387038</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.596479476992</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>125.5557035337633</v>
+        <v>163.7165406101356</v>
       </c>
       <c r="S15" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3125413748</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U15" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V15" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W15" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28494,10 +28494,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>206.29994182601</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>179.4615871635801</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H16" t="n">
         <v>159.6553749464714</v>
@@ -28506,10 +28506,10 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J16" t="n">
-        <v>108.0860501624724</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K16" t="n">
-        <v>206.29994182601</v>
+        <v>99.93133320088072</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28518,40 +28518,40 @@
         <v>100.5664701794398</v>
       </c>
       <c r="N16" t="n">
-        <v>90.43675181255529</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.0816111059031</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R16" t="n">
         <v>163.3843627302576</v>
       </c>
       <c r="S16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.29994182601</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="C17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="D17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="E17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="F17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="G17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="H17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="I17" t="n">
-        <v>294.9893841667091</v>
+        <v>204.4354249891204</v>
       </c>
       <c r="J17" t="n">
         <v>134.4102078264584</v>
@@ -28606,31 +28606,31 @@
         <v>154.1061328265926</v>
       </c>
       <c r="Q17" t="n">
-        <v>267.6630854635727</v>
+        <v>163.1701443421162</v>
       </c>
       <c r="R17" t="n">
-        <v>287.9226767626828</v>
+        <v>287.9226767626829</v>
       </c>
       <c r="S17" t="n">
-        <v>303.4517283871666</v>
+        <v>303.4517283871667</v>
       </c>
       <c r="T17" t="n">
-        <v>220.7932495562064</v>
+        <v>329.6858934617242</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4380721062493</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="W17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="X17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="Y17" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="C20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="D20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="E20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="F20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="G20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="H20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="I20" t="n">
         <v>186.0967402611912</v>
@@ -28828,7 +28828,7 @@
         <v>151.4763064618623</v>
       </c>
       <c r="L20" t="n">
-        <v>151.5771083631704</v>
+        <v>169.9157930910996</v>
       </c>
       <c r="M20" t="n">
         <v>137.4691413532517</v>
@@ -28840,7 +28840,7 @@
         <v>140.7511784399486</v>
       </c>
       <c r="P20" t="n">
-        <v>172.4448175545218</v>
+        <v>154.1061328265926</v>
       </c>
       <c r="Q20" t="n">
         <v>163.1701443421162</v>
@@ -28855,19 +28855,19 @@
         <v>329.6858934617242</v>
       </c>
       <c r="U20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="V20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="W20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="X20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.062775011148</v>
+        <v>333.0627750111479</v>
       </c>
     </row>
     <row r="21">
@@ -29035,40 +29035,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="C23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="D23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="E23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="F23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="G23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="H23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="I23" t="n">
-        <v>294.9893841667089</v>
+        <v>294.9893841667091</v>
       </c>
       <c r="J23" t="n">
-        <v>134.4102078264584</v>
+        <v>243.3028517319762</v>
       </c>
       <c r="K23" t="n">
-        <v>151.4763064618623</v>
+        <v>169.8149911897915</v>
       </c>
       <c r="L23" t="n">
         <v>151.5771083631704</v>
       </c>
       <c r="M23" t="n">
-        <v>155.8078260811805</v>
+        <v>137.4691413532517</v>
       </c>
       <c r="N23" t="n">
         <v>135.149633588635</v>
@@ -29077,10 +29077,10 @@
         <v>140.7511784399486</v>
       </c>
       <c r="P23" t="n">
-        <v>262.9987767321102</v>
+        <v>154.1061328265926</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.1701443421162</v>
+        <v>272.062788247634</v>
       </c>
       <c r="R23" t="n">
         <v>179.030032857165</v>
@@ -29089,22 +29089,22 @@
         <v>194.5590844816488</v>
       </c>
       <c r="T23" t="n">
-        <v>329.685893461724</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="V23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="X23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.0627750111481</v>
+        <v>333.0627750111479</v>
       </c>
     </row>
     <row r="24">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="I26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>188.7343397317004</v>
+        <v>171.2432340091904</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="M26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R26" t="n">
-        <v>110.6849561892633</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y26" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="27">
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>177.7875066591254</v>
       </c>
       <c r="G27" t="n">
         <v>135.7577500944538</v>
@@ -29372,55 +29372,55 @@
         <v>107.8987297172383</v>
       </c>
       <c r="I27" t="n">
-        <v>188.7343397317004</v>
+        <v>77.36379842985801</v>
       </c>
       <c r="J27" t="n">
-        <v>180.9699791695187</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>77.4519116244787</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31914540423523</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.01641885235131</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>75.87162509168563</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.596479476992</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>125.5557035337633</v>
+        <v>78.21316692998968</v>
       </c>
       <c r="S27" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="28">
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C28" t="n">
-        <v>188.7343397317004</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F28" t="n">
-        <v>188.7343397317004</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>167.6670360907737</v>
@@ -29451,10 +29451,10 @@
         <v>159.6553749464714</v>
       </c>
       <c r="I28" t="n">
-        <v>188.7343397317004</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J28" t="n">
-        <v>73.10435918684013</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>30.12149134168146</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>129.0816111059031</v>
       </c>
       <c r="R28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="F29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="I29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J29" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="M29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7343397317004</v>
+        <v>173.4115018589187</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y29" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="30">
@@ -29597,19 +29597,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>188.7343397317004</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>188.7343397317004</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>188.7343397317004</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H30" t="n">
         <v>107.8987297172383</v>
       </c>
       <c r="I30" t="n">
-        <v>87.89457546438634</v>
+        <v>77.36379842985801</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,25 +29639,25 @@
         <v>78.21316692998968</v>
       </c>
       <c r="S30" t="n">
-        <v>188.7343397317004</v>
+        <v>164.0308087813356</v>
       </c>
       <c r="T30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="31">
@@ -29691,52 +29691,52 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J31" t="n">
-        <v>141.1196978806404</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>98.42502178807985</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>107.368049634244</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.12493439304151</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R31" t="n">
-        <v>188.7343397317004</v>
+        <v>163.3843627302576</v>
       </c>
       <c r="S31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="U31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="V31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="W31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316999</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="C32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="D32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="E32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="F32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="G32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="H32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="I32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="J32" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.9986409640523</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="L32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="M32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="N32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="P32" t="n">
-        <v>8.727492514695513</v>
+        <v>36.8932258324676</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="R32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="S32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="T32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>157.3564731326738</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29849,7 +29849,7 @@
         <v>77.36379842985801</v>
       </c>
       <c r="J33" t="n">
-        <v>98.58652704303775</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29867,34 +29867,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>188.7343397317004</v>
+        <v>78.21316692998968</v>
       </c>
       <c r="S33" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>188.7343397317004</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29931,22 +29931,22 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="L34" t="n">
-        <v>98.42502178807985</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100.5664701794398</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="O34" t="n">
-        <v>188.7343397317004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Q34" t="n">
         <v>61.12493439304151</v>
@@ -29955,25 +29955,25 @@
         <v>163.3843627302576</v>
       </c>
       <c r="S34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="T34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.7343397317004</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="K35" t="n">
-        <v>199.5522199470279</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="L35" t="n">
         <v>220.7932495562064</v>
@@ -30022,19 +30022,19 @@
         <v>220.7932495562064</v>
       </c>
       <c r="O35" t="n">
-        <v>220.7932495562064</v>
+        <v>140.7511784399486</v>
       </c>
       <c r="P35" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.7932495562064</v>
+        <v>160.1027100700946</v>
       </c>
       <c r="R35" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="S35" t="n">
-        <v>194.5590844816488</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T35" t="n">
         <v>220.7932495562064</v>
@@ -30074,7 +30074,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>188.5608609043609</v>
       </c>
       <c r="G36" t="n">
         <v>135.7577500944538</v>
@@ -30083,7 +30083,7 @@
         <v>107.8987297172383</v>
       </c>
       <c r="I36" t="n">
-        <v>87.89457546438634</v>
+        <v>77.36379842985801</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30162,22 +30162,22 @@
         <v>159.6553749464714</v>
       </c>
       <c r="I37" t="n">
-        <v>147.0657759563305</v>
+        <v>212.5288955669585</v>
       </c>
       <c r="J37" t="n">
-        <v>108.0860501624724</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K37" t="n">
-        <v>220.7932495562064</v>
+        <v>99.93133320088072</v>
       </c>
       <c r="L37" t="n">
         <v>98.42502178807985</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>100.5664701794398</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>90.43675181255529</v>
       </c>
       <c r="O37" t="n">
         <v>103.538292754451</v>
@@ -30244,7 +30244,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K38" t="n">
         <v>220.7932495562064</v>
@@ -30253,7 +30253,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N38" t="n">
         <v>220.7932495562064</v>
@@ -30271,7 +30271,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="S38" t="n">
-        <v>211.3202888199995</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T38" t="n">
         <v>220.7932495562064</v>
@@ -30311,7 +30311,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>188.5608609043609</v>
       </c>
       <c r="G39" t="n">
         <v>135.7577500944538</v>
@@ -30320,34 +30320,34 @@
         <v>107.8987297172383</v>
       </c>
       <c r="I39" t="n">
-        <v>132.9492042851979</v>
+        <v>77.36379842985801</v>
       </c>
       <c r="J39" t="n">
-        <v>98.58652704303775</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>91.52941663360662</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>77.4519116244787</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31914540423523</v>
+        <v>28.39826731382387</v>
       </c>
       <c r="N39" t="n">
-        <v>59.01641885235131</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>79.93380909387038</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.596479476992</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>125.5557035337633</v>
+        <v>78.21316692998968</v>
       </c>
       <c r="S39" t="n">
         <v>164.0308087813356</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30405,22 +30405,22 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K40" t="n">
-        <v>99.93133320088072</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>100.5664701794398</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>90.43675181255529</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="P40" t="n">
-        <v>168.2834118368505</v>
       </c>
       <c r="Q40" t="n">
         <v>129.0816111059031</v>
@@ -30493,7 +30493,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="N41" t="n">
-        <v>220.7932495562064</v>
+        <v>198.3515131918175</v>
       </c>
       <c r="O41" t="n">
         <v>220.7932495562064</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.22506388969341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>125.5557035337633</v>
+        <v>123.2677957508012</v>
       </c>
       <c r="S42" t="n">
-        <v>192.753817654419</v>
+        <v>164.0308087813356</v>
       </c>
       <c r="T42" t="n">
         <v>197.3125413748</v>
@@ -30602,7 +30602,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="X42" t="n">
-        <v>220.7932495562064</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -30615,16 +30615,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.7932495562064</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>210.6031263819133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>220.7932495562064</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>165.3115892618394</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Q43" t="n">
         <v>129.0816111059031</v>
@@ -30684,7 +30684,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.7932495562064</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -30727,13 +30727,13 @@
         <v>220.7932495562064</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N44" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="O44" t="n">
-        <v>79.33352612201811</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P44" t="n">
         <v>220.7932495562064</v>
@@ -30776,7 +30776,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>216.0802127482125</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -30791,40 +30791,40 @@
         <v>135.7577500944538</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8987297172383</v>
+        <v>107.8987297172384</v>
       </c>
       <c r="I45" t="n">
-        <v>87.89457546438632</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J45" t="n">
-        <v>98.58652704303771</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.52941663360656</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>77.45191162447861</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31914540423513</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.01641885235119</v>
+        <v>28.22506388969569</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>79.93380909387031</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.5964794769919</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>125.5557035337633</v>
+        <v>125.5557035337634</v>
       </c>
       <c r="S45" t="n">
-        <v>164.0308087813356</v>
+        <v>209.0854376021472</v>
       </c>
       <c r="T45" t="n">
         <v>197.3125413748</v>
@@ -30855,13 +30855,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>220.7932495562064</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>220.7932495562064</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30870,16 +30870,16 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H46" t="n">
-        <v>159.6553749464714</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I46" t="n">
-        <v>147.0657759563305</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="J46" t="n">
-        <v>158.9810471588231</v>
+        <v>151.3910209572235</v>
       </c>
       <c r="K46" t="n">
-        <v>99.93133320088067</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>107.3680496342439</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.081611105903</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R46" t="n">
-        <v>163.3843627302576</v>
+        <v>163.3843627302577</v>
       </c>
       <c r="S46" t="n">
         <v>218.4789179341138</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4961433786896515</v>
+        <v>0.4961433786896493</v>
       </c>
       <c r="H44" t="n">
-        <v>5.081128377005395</v>
+        <v>5.081128377005372</v>
       </c>
       <c r="I44" t="n">
-        <v>19.12756760693281</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J44" t="n">
-        <v>42.10954908706085</v>
+        <v>42.10954908706066</v>
       </c>
       <c r="K44" t="n">
-        <v>63.11129830699381</v>
+        <v>63.11129830699353</v>
       </c>
       <c r="L44" t="n">
-        <v>78.29514623256725</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M44" t="n">
-        <v>87.11843604333933</v>
+        <v>87.11843604333895</v>
       </c>
       <c r="N44" t="n">
-        <v>88.52810341804131</v>
+        <v>88.52810341804093</v>
       </c>
       <c r="O44" t="n">
-        <v>83.59457769619608</v>
+        <v>83.59457769619571</v>
       </c>
       <c r="P44" t="n">
-        <v>71.3460380347953</v>
+        <v>71.34603803479499</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.57790328547214</v>
+        <v>53.5779032854719</v>
       </c>
       <c r="R44" t="n">
-        <v>31.16586651161385</v>
+        <v>31.16586651161371</v>
       </c>
       <c r="S44" t="n">
-        <v>11.30586724189044</v>
+        <v>11.30586724189039</v>
       </c>
       <c r="T44" t="n">
-        <v>2.171867640213951</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03969147029517212</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2654601105885246</v>
+        <v>0.2654601105885234</v>
       </c>
       <c r="H45" t="n">
-        <v>2.563785804894435</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I45" t="n">
-        <v>9.139745035613677</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J45" t="n">
-        <v>25.08015895696232</v>
+        <v>25.08015895696221</v>
       </c>
       <c r="K45" t="n">
-        <v>42.86598636639346</v>
+        <v>42.86598636639328</v>
       </c>
       <c r="L45" t="n">
-        <v>57.63860866089873</v>
+        <v>57.63860866089848</v>
       </c>
       <c r="M45" t="n">
-        <v>67.26153766973273</v>
+        <v>67.26153766973243</v>
       </c>
       <c r="N45" t="n">
-        <v>69.04175042889878</v>
+        <v>69.04175042889847</v>
       </c>
       <c r="O45" t="n">
-        <v>63.15971324164778</v>
+        <v>63.1597132416475</v>
       </c>
       <c r="P45" t="n">
-        <v>50.69123813510168</v>
+        <v>50.69123813510146</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.88575025687904</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R45" t="n">
-        <v>16.48181283110156</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S45" t="n">
-        <v>4.930805124308776</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T45" t="n">
-        <v>1.069990533468658</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01746448095977136</v>
+        <v>0.01746448095977128</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2225528393343541</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H46" t="n">
-        <v>1.97869706244544</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I46" t="n">
-        <v>6.692770841073123</v>
+        <v>6.692770841073093</v>
       </c>
       <c r="J46" t="n">
-        <v>15.73448574093883</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K46" t="n">
-        <v>25.85659351539131</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L46" t="n">
-        <v>33.08753758612752</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M46" t="n">
-        <v>34.88616916947515</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N46" t="n">
-        <v>34.05665404104713</v>
+        <v>34.05665404104698</v>
       </c>
       <c r="O46" t="n">
-        <v>31.4568322360958</v>
+        <v>31.45683223609566</v>
       </c>
       <c r="P46" t="n">
-        <v>26.91675431367496</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.63576548280669</v>
+        <v>18.6357654828066</v>
       </c>
       <c r="R46" t="n">
-        <v>10.00678493952468</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S46" t="n">
-        <v>3.878489027308696</v>
+        <v>3.878489027308679</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9509075862467853</v>
+        <v>0.9509075862467812</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01213924578187387</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.20320156481872</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.23768650620635</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.82363536414763</v>
+        <v>54.82363536414724</v>
       </c>
       <c r="L11" t="n">
-        <v>54.72283346283953</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="M11" t="n">
-        <v>108.8926439055161</v>
+        <v>75.67078408109182</v>
       </c>
       <c r="N11" t="n">
-        <v>71.15030823737499</v>
+        <v>71.15030823737459</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.12979748389377</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.26990896884495</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.74085734436115</v>
+        <v>11.74085734436075</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>35.27435789860897</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>54.14301267364564</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>89.41737057225585</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>26.21625033532575</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>38.96338889480722</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.32531765281078</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.14092041620546</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>46.64456687953856</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59.23416586967944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>91.92242325991849</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.975422391920509</v>
+        <v>77.21833072010652</v>
       </c>
       <c r="R13" t="n">
-        <v>42.91557909575232</v>
+        <v>42.91557909575192</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.20320156481872</v>
+        <v>20.20320156481835</v>
       </c>
       <c r="J14" t="n">
-        <v>71.88973399955161</v>
+        <v>71.88973399955124</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>82.49596618496297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7357203657144362</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="M14" t="n">
-        <v>108.8926439055161</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>29.35235378426273</v>
+        <v>65.54876338606098</v>
       </c>
       <c r="P14" t="n">
-        <v>52.19380899941736</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>108.8926439055161</v>
+        <v>43.1297974838934</v>
       </c>
       <c r="R14" t="n">
-        <v>27.26990896884495</v>
+        <v>27.26990896884458</v>
       </c>
       <c r="S14" t="n">
-        <v>11.74085734436115</v>
+        <v>11.74085734436078</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>47.14823752758027</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -35747,13 +35747,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.1608370763722</v>
       </c>
       <c r="S15" t="n">
-        <v>42.26913304467434</v>
+        <v>42.26913304467397</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>8.987400451209568</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35790,10 +35790,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.14092041620546</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.79455107280642</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>101.0857493940376</v>
       </c>
       <c r="K16" t="n">
-        <v>106.3686086251292</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93189219176597</v>
+        <v>98.9318921917656</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>77.21833072010655</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>108.8926439055178</v>
+        <v>18.33868472792922</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.4929411214565</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.8926439055178</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="S17" t="n">
-        <v>108.8926439055178</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>81.6247029048987</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.529553488628608</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>18.33868472792922</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>18.33868472792916</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36151,10 +36151,10 @@
         <v>108.8926439055179</v>
       </c>
       <c r="U20" t="n">
-        <v>81.62470290489875</v>
+        <v>81.6247029048987</v>
       </c>
       <c r="V20" t="n">
-        <v>4.529553488628665</v>
+        <v>4.529553488628608</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,19 +36352,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>108.8926439055176</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>18.33868472792922</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>18.33868472792881</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>108.8926439055179</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>81.62470290489881</v>
+        <v>81.6247029048987</v>
       </c>
       <c r="V23" t="n">
-        <v>4.529553488628721</v>
+        <v>4.529553488628608</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.637599470509166</v>
+        <v>2.637599470508682</v>
       </c>
       <c r="J26" t="n">
-        <v>41.45027195249837</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>374.3692623438494</v>
+        <v>356.8781566213394</v>
       </c>
       <c r="L26" t="n">
-        <v>282.790554769298</v>
+        <v>79.4317100049191</v>
       </c>
       <c r="M26" t="n">
-        <v>68.40197265726997</v>
+        <v>518.759273210994</v>
       </c>
       <c r="N26" t="n">
-        <v>508.4255075315289</v>
+        <v>53.58470614306495</v>
       </c>
       <c r="O26" t="n">
-        <v>444.015349805007</v>
+        <v>444.0153498050065</v>
       </c>
       <c r="P26" t="n">
-        <v>369.2988634034497</v>
+        <v>369.2988634034493</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.63744594418468</v>
+        <v>246.3717856758846</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>78.04938354243664</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,19 +36647,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>23.36221412135509</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>17.70875580429893</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>42.62191615705436</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>32.70090602452609</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>34.2812745755761</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>100.8397642673141</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>82.38345212648096</v>
+        <v>32.54814971098743</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.650648241016597</v>
+        <v>8.650648241016114</v>
       </c>
       <c r="C28" t="n">
-        <v>21.39778680049807</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.75971555850074</v>
       </c>
       <c r="F28" t="n">
-        <v>42.57531832189591</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.66856377536989</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>70.54866781513675</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>85.08357716638366</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>88.25367370568497</v>
       </c>
       <c r="O28" t="n">
-        <v>85.19604697724944</v>
+        <v>66.02504026606681</v>
       </c>
       <c r="P28" t="n">
-        <v>177.8534159656682</v>
+        <v>17.02045732891303</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.34997700144277</v>
+        <v>25.34997700144228</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.637599470509166</v>
+        <v>2.637599470508626</v>
       </c>
       <c r="J29" t="n">
-        <v>54.32413190524206</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>78.72204169571279</v>
+        <v>374.3692623438489</v>
       </c>
       <c r="L29" t="n">
-        <v>37.15723136852998</v>
+        <v>471.5248945009979</v>
       </c>
       <c r="M29" t="n">
-        <v>518.7592732109945</v>
+        <v>381.5772372647891</v>
       </c>
       <c r="N29" t="n">
-        <v>508.4255075315289</v>
+        <v>53.58470614306489</v>
       </c>
       <c r="O29" t="n">
-        <v>444.015349805007</v>
+        <v>428.6925119322252</v>
       </c>
       <c r="P29" t="n">
         <v>180.5645236717493</v>
       </c>
       <c r="Q29" t="n">
-        <v>246.3717856758851</v>
+        <v>246.3717856758846</v>
       </c>
       <c r="R29" t="n">
-        <v>78.04938354243713</v>
+        <v>9.704306874534854</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36893,13 +36893,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>32.70090602452657</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45.22810764815111</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>52.97658963724661</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>183.2232163937983</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>27.61408213350596</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>24.70353095036479</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36987,31 +36987,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.01533869380032</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>11.08218379755792</v>
+        <v>88.80300653081915</v>
       </c>
       <c r="L31" t="n">
-        <v>70.54866781513675</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>85.08357716638366</v>
+        <v>130.3951156559322</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25367370568497</v>
+        <v>98.29758791914458</v>
       </c>
       <c r="O31" t="n">
-        <v>21.31956269077581</v>
+        <v>85.1960469772489</v>
       </c>
       <c r="P31" t="n">
-        <v>33.03877621235875</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.34997700144277</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.637599470509137</v>
+        <v>2.637599470508597</v>
       </c>
       <c r="J32" t="n">
-        <v>230.1846116841987</v>
+        <v>41.45027195249837</v>
       </c>
       <c r="K32" t="n">
-        <v>292.6335635762014</v>
+        <v>374.3692623438488</v>
       </c>
       <c r="L32" t="n">
-        <v>471.5248945009984</v>
+        <v>471.5248945009978</v>
       </c>
       <c r="M32" t="n">
-        <v>518.7592732109945</v>
+        <v>51.26519837844812</v>
       </c>
       <c r="N32" t="n">
-        <v>53.5847061430654</v>
+        <v>221.8853327037577</v>
       </c>
       <c r="O32" t="n">
-        <v>255.2810100733066</v>
+        <v>444.0153498050064</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>217.457749504217</v>
       </c>
       <c r="Q32" t="n">
-        <v>246.3717856758851</v>
+        <v>246.3717856758845</v>
       </c>
       <c r="R32" t="n">
-        <v>78.0493835424371</v>
+        <v>78.04938354243656</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>11.2440495580282</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>183.2232163937985</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>108.80053063783</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>63.17863619793704</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>21.39778680049804</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>174.80547338735</v>
+        <v>132.7185611229246</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.30931794361999</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25367370568497</v>
+        <v>98.29758791914455</v>
       </c>
       <c r="O34" t="n">
-        <v>85.19604697724941</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>33.03877621235875</v>
+        <v>81.36629009745585</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,31 +37306,31 @@
         <v>262.2435215087048</v>
       </c>
       <c r="K35" t="n">
-        <v>48.07591348516559</v>
+        <v>69.31694309434408</v>
       </c>
       <c r="L35" t="n">
-        <v>69.21614119303598</v>
+        <v>433.846274359489</v>
       </c>
       <c r="M35" t="n">
         <v>83.32410820295469</v>
       </c>
       <c r="N35" t="n">
-        <v>85.64361596757144</v>
+        <v>433.846274359489</v>
       </c>
       <c r="O35" t="n">
-        <v>433.846274359489</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>401.3577732279558</v>
+        <v>264.2398657780953</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.6888811006589</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.76321669904139</v>
+        <v>110.1082933669431</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.2341650745576</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>45.05462882081156</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.05462882081156</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,19 +37458,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>65.46311961062796</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>112.707199393734</v>
       </c>
       <c r="K37" t="n">
-        <v>120.8619163553257</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>57.30840264903628</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.69650929501517</v>
+        <v>34.69650929501514</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>262.2435215087048</v>
       </c>
       <c r="K38" t="n">
-        <v>69.31694309434408</v>
+        <v>286.5590605862062</v>
       </c>
       <c r="L38" t="n">
-        <v>433.846274359489</v>
+        <v>69.21614119303595</v>
       </c>
       <c r="M38" t="n">
-        <v>330.0249334792941</v>
+        <v>83.32410820295466</v>
       </c>
       <c r="N38" t="n">
-        <v>164.9453008029638</v>
+        <v>85.64361596757141</v>
       </c>
       <c r="O38" t="n">
-        <v>433.846274359489</v>
+        <v>80.04207111625777</v>
       </c>
       <c r="P38" t="n">
-        <v>66.68711672961381</v>
+        <v>401.3577732279557</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.62310521409022</v>
+        <v>278.430695500391</v>
       </c>
       <c r="R38" t="n">
         <v>110.1082933669431</v>
       </c>
       <c r="S38" t="n">
-        <v>16.76120433835066</v>
+        <v>26.23416507455757</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>45.05462882081164</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>45.05462882081156</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>40.70955806552257</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>117.2549568017554</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>60.91536220260652</v>
+        <v>137.4607609388395</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>262.2435215087048</v>
       </c>
       <c r="K41" t="n">
-        <v>69.31694309434408</v>
+        <v>406.4281721683554</v>
       </c>
       <c r="L41" t="n">
         <v>69.21614119303598</v>
       </c>
       <c r="M41" t="n">
+        <v>83.32410820295469</v>
+      </c>
+      <c r="N41" t="n">
+        <v>63.20187960318256</v>
+      </c>
+      <c r="O41" t="n">
         <v>433.846274359489</v>
       </c>
-      <c r="N41" t="n">
-        <v>85.64361596757144</v>
-      </c>
-      <c r="O41" t="n">
-        <v>80.0420711162578</v>
-      </c>
       <c r="P41" t="n">
-        <v>336.4228012311845</v>
+        <v>239.2788617211661</v>
       </c>
       <c r="Q41" t="n">
-        <v>278.4306955003911</v>
+        <v>57.62310521409022</v>
       </c>
       <c r="R41" t="n">
         <v>41.76321669904139</v>
@@ -37880,10 +37880,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.05462882081156</v>
       </c>
       <c r="S42" t="n">
-        <v>28.72300887308341</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37898,7 +37898,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>16.33161994772814</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -37911,16 +37911,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.7095580655226</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.59755986739398</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>73.81862538300723</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>64.74511908239957</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>113.4251999219624</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.044575688438186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.6965092950152</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J44" t="n">
-        <v>86.38304172974813</v>
+        <v>142.3744099265564</v>
       </c>
       <c r="K44" t="n">
-        <v>265.8013095369689</v>
+        <v>406.4281721683553</v>
       </c>
       <c r="L44" t="n">
-        <v>433.846274359489</v>
+        <v>69.21614119303575</v>
       </c>
       <c r="M44" t="n">
-        <v>330.0249334792942</v>
+        <v>83.32410820295443</v>
       </c>
       <c r="N44" t="n">
-        <v>85.64361596757156</v>
+        <v>85.64361596757118</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>80.04207111625756</v>
       </c>
       <c r="P44" t="n">
-        <v>66.6871167296139</v>
+        <v>401.3577732279556</v>
       </c>
       <c r="Q44" t="n">
-        <v>278.4306955003912</v>
+        <v>278.4306955003909</v>
       </c>
       <c r="R44" t="n">
-        <v>110.1082933669432</v>
+        <v>110.108293366943</v>
       </c>
       <c r="S44" t="n">
-        <v>26.23416507455762</v>
+        <v>26.23416507455757</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38072,55 +38072,55 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>45.05462882081156</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38151,13 +38151,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>53.45669662500407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.81862538300723</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>61.13787460973501</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.72747359987588</v>
       </c>
       <c r="J46" t="n">
-        <v>50.8949969963507</v>
+        <v>43.30497079475109</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
